--- a/UMS_Courier_Schedules.xlsx
+++ b/UMS_Courier_Schedules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlambson/Google Drive/Work/University of Cambridge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlambson/GitHub/Cambridge_Covid/Location_Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7DA83-B60F-1D47-9B82-1014ADEDA49D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AC53B-1582-3E44-920A-5F8D2E32A56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{2C2620DC-D6D8-BD44-B43F-777623BFE0B1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{2C2620DC-D6D8-BD44-B43F-777623BFE0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Drop Box (courier 1)" sheetId="1" r:id="rId1"/>
@@ -1297,9 +1297,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1317,18 +1314,21 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1463,34 +1463,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1854,7 +1826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133A44C9-432E-EE42-9D1F-84A8D71E6738}">
   <dimension ref="A1:AW147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1910,56 +1884,56 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AG2" s="11" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AG2" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
       <c r="AV2" t="s">
         <v>310</v>
       </c>
@@ -1980,54 +1954,54 @@
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29" t="s">
+      <c r="N3" s="33"/>
+      <c r="O3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29" t="s">
+      <c r="T3" s="33"/>
+      <c r="U3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29" t="s">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="29"/>
+      <c r="AD3" s="33"/>
       <c r="AF3" s="7" t="s">
         <v>309</v>
       </c>
@@ -2046,10 +2020,10 @@
       <c r="AK3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AL3" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AM3" s="21" t="s">
+      <c r="AM3" s="20" t="s">
         <v>308</v>
       </c>
       <c r="AN3" s="7" t="s">
@@ -2067,10 +2041,10 @@
       <c r="AR3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="AS3" s="21" t="s">
+      <c r="AS3" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AT3" s="20" t="s">
         <v>308</v>
       </c>
       <c r="AV3" s="7" t="s">
@@ -2087,81 +2061,81 @@
       <c r="B4" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="30" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AA4" s="30" t="s">
+      <c r="AA4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AC4" s="30" t="s">
+      <c r="AC4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AF4" s="26" t="s">
+      <c r="AF4" s="25" t="s">
         <v>330</v>
       </c>
       <c r="AG4" t="s">
@@ -2179,10 +2153,10 @@
       <c r="AK4" t="s">
         <v>279</v>
       </c>
-      <c r="AL4" s="22" t="s">
+      <c r="AL4" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AM4" s="22" t="s">
+      <c r="AM4" s="21" t="s">
         <v>279</v>
       </c>
       <c r="AN4" t="s">
@@ -2200,10 +2174,10 @@
       <c r="AR4" t="s">
         <v>318</v>
       </c>
-      <c r="AS4" s="22" t="s">
+      <c r="AS4" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="AT4" s="22" t="s">
+      <c r="AT4" s="21" t="s">
         <v>318</v>
       </c>
       <c r="AV4">
@@ -2220,60 +2194,60 @@
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="30" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28" t="s">
+      <c r="O5" s="27"/>
+      <c r="P5" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28" t="s">
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28" t="s">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28" t="s">
+      <c r="U5" s="27"/>
+      <c r="V5" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28" t="s">
+      <c r="W5" s="27"/>
+      <c r="X5" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28" t="s">
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28" t="s">
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28" t="s">
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="AF5" s="27" t="s">
+      <c r="AF5" s="26" t="s">
         <v>331</v>
       </c>
       <c r="AG5" t="s">
@@ -2291,10 +2265,10 @@
       <c r="AK5" t="s">
         <v>318</v>
       </c>
-      <c r="AL5" s="22" t="s">
+      <c r="AL5" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="AM5" s="22" t="s">
+      <c r="AM5" s="21" t="s">
         <v>318</v>
       </c>
       <c r="AN5" t="s">
@@ -2312,10 +2286,10 @@
       <c r="AR5" t="s">
         <v>279</v>
       </c>
-      <c r="AS5" s="22" t="s">
+      <c r="AS5" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AT5" s="22" t="s">
+      <c r="AT5" s="21" t="s">
         <v>279</v>
       </c>
       <c r="AV5">
@@ -2332,80 +2306,80 @@
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="V6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="Y6" s="28" t="s">
+      <c r="Y6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="Z6" s="28" t="s">
+      <c r="Z6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="AA6" s="28" t="s">
+      <c r="AA6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="AB6" s="28" t="s">
+      <c r="AB6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="AC6" s="28" t="s">
+      <c r="AC6" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="AD6" s="28" t="s">
+      <c r="AD6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AF6" s="19" t="s">
         <v>332</v>
       </c>
       <c r="AG6" t="s">
@@ -2423,10 +2397,10 @@
       <c r="AK6" t="s">
         <v>318</v>
       </c>
-      <c r="AL6" s="22" t="s">
+      <c r="AL6" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="AM6" s="22" t="s">
+      <c r="AM6" s="21" t="s">
         <v>318</v>
       </c>
       <c r="AN6" t="s">
@@ -2444,10 +2418,10 @@
       <c r="AR6" t="s">
         <v>318</v>
       </c>
-      <c r="AS6" s="22" t="s">
+      <c r="AS6" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="AT6" s="22" t="s">
+      <c r="AT6" s="21" t="s">
         <v>318</v>
       </c>
       <c r="AV6">
@@ -2464,60 +2438,60 @@
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28" t="s">
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28" t="s">
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28" t="s">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28" t="s">
+      <c r="R7" s="27"/>
+      <c r="S7" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28" t="s">
+      <c r="T7" s="27"/>
+      <c r="U7" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28" t="s">
+      <c r="V7" s="27"/>
+      <c r="W7" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28" t="s">
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28" t="s">
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28" t="s">
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="AD7" s="28"/>
-      <c r="AF7" s="24" t="s">
+      <c r="AD7" s="27"/>
+      <c r="AF7" s="23" t="s">
         <v>333</v>
       </c>
       <c r="AG7" t="s">
@@ -2535,10 +2509,10 @@
       <c r="AK7" t="s">
         <v>279</v>
       </c>
-      <c r="AL7" s="22" t="s">
+      <c r="AL7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AM7" s="22" t="s">
+      <c r="AM7" s="21" t="s">
         <v>279</v>
       </c>
       <c r="AN7" t="s">
@@ -2556,10 +2530,10 @@
       <c r="AR7" t="s">
         <v>279</v>
       </c>
-      <c r="AS7" s="22" t="s">
+      <c r="AS7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AT7" s="22" t="s">
+      <c r="AT7" s="21" t="s">
         <v>279</v>
       </c>
       <c r="AV7">
@@ -2576,208 +2550,208 @@
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29" t="s">
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29" t="s">
+      <c r="L10" s="33"/>
+      <c r="M10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29" t="s">
+      <c r="N10" s="33"/>
+      <c r="O10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29" t="s">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29" t="s">
+      <c r="R10" s="33"/>
+      <c r="S10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29" t="s">
+      <c r="T10" s="33"/>
+      <c r="U10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29" t="s">
+      <c r="V10" s="33"/>
+      <c r="W10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29" t="s">
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29" t="s">
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29" t="s">
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="29"/>
+      <c r="AD10" s="33"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="30" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="R11" s="30" t="s">
+      <c r="R11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="S11" s="30" t="s">
+      <c r="S11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="30" t="s">
+      <c r="U11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="V11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="W11" s="30" t="s">
+      <c r="W11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="X11" s="30" t="s">
+      <c r="X11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="Y11" s="30" t="s">
+      <c r="Y11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="Z11" s="30" t="s">
+      <c r="Z11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AA11" s="30" t="s">
+      <c r="AA11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="AB11" s="30" t="s">
+      <c r="AB11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AC11" s="30" t="s">
+      <c r="AC11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="AD11" s="30" t="s">
+      <c r="AD11" s="28" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2786,48 +2760,48 @@
         <v>5</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28" t="s">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28" t="s">
+      <c r="M12" s="27"/>
+      <c r="N12" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28" t="s">
+      <c r="O12" s="27"/>
+      <c r="P12" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28" t="s">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28" t="s">
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28" t="s">
+      <c r="W12" s="27"/>
+      <c r="X12" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28" t="s">
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28" t="s">
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2836,10 +2810,10 @@
       <c r="B13" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
@@ -2848,123 +2822,123 @@
       <c r="G13" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="O13" s="28" t="s">
+      <c r="O13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28" t="s">
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="V13" s="28" t="s">
+      <c r="V13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="W13" s="28" t="s">
+      <c r="W13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="X13" s="28" t="s">
+      <c r="X13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="Y13" s="28" t="s">
+      <c r="Y13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="Z13" s="28" t="s">
+      <c r="Z13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="AA13" s="28" t="s">
+      <c r="AA13" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="AB13" s="28" t="s">
+      <c r="AB13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>293</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28" t="s">
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28" t="s">
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28" t="s">
+      <c r="V14" s="27"/>
+      <c r="W14" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28" t="s">
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28" t="s">
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2972,10 +2946,10 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2989,16 +2963,16 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3006,13 +2980,13 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="24" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3020,13 +2994,13 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3034,13 +3008,13 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3048,13 +3022,13 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3065,13 +3039,13 @@
       <c r="B22" s="1">
         <v>0.625</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3080,10 +3054,10 @@
         <v>31</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3092,10 +3066,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3104,7 +3078,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3113,7 +3087,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3122,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3131,7 +3105,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3140,7 +3114,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3149,7 +3123,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3182,7 +3156,7 @@
       <c r="B34" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
@@ -3194,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3203,7 +3177,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3212,7 +3186,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3221,7 +3195,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3230,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3239,7 +3213,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3248,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3257,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3268,10 +3242,10 @@
       <c r="B43" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3279,10 +3253,10 @@
       <c r="A44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3290,10 +3264,10 @@
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3301,10 +3275,10 @@
       <c r="A46" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3312,10 +3286,10 @@
       <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3323,10 +3297,10 @@
       <c r="A48" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3334,10 +3308,10 @@
       <c r="A49" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3345,10 +3319,10 @@
       <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3356,10 +3330,10 @@
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3370,7 +3344,7 @@
       <c r="B52" s="1">
         <v>0.625</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
@@ -3381,7 +3355,7 @@
       <c r="A53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3389,7 +3363,7 @@
       <c r="A54" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3397,7 +3371,7 @@
       <c r="A55" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3405,7 +3379,7 @@
       <c r="A56" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3413,7 +3387,7 @@
       <c r="A57" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3421,7 +3395,7 @@
       <c r="A58" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3429,7 +3403,7 @@
       <c r="A59" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3437,7 +3411,7 @@
       <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3470,7 +3444,7 @@
       <c r="B64" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
@@ -3482,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3491,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3500,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3509,7 +3483,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3518,7 +3492,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3527,7 +3501,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3536,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3545,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3556,10 +3530,10 @@
       <c r="B73" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3567,10 +3541,10 @@
       <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3578,10 +3552,10 @@
       <c r="A75" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3589,10 +3563,10 @@
       <c r="A76" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3600,10 +3574,10 @@
       <c r="A77" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3611,10 +3585,10 @@
       <c r="A78" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3622,10 +3596,10 @@
       <c r="A79" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3633,10 +3607,10 @@
       <c r="A80" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3644,10 +3618,10 @@
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3658,7 +3632,7 @@
       <c r="B82" s="1">
         <v>0.625</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E82" t="s">
@@ -3669,7 +3643,7 @@
       <c r="A83" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3677,7 +3651,7 @@
       <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3685,7 +3659,7 @@
       <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3693,7 +3667,7 @@
       <c r="A86" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3701,7 +3675,7 @@
       <c r="A87" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3709,7 +3683,7 @@
       <c r="A88" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3717,7 +3691,7 @@
       <c r="A89" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3725,7 +3699,7 @@
       <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3758,7 +3732,7 @@
       <c r="B94" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E94" t="s">
@@ -3770,7 +3744,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3779,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3788,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3797,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3806,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3815,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3824,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3833,7 +3807,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3844,10 +3818,10 @@
       <c r="B103" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3855,10 +3829,10 @@
       <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3866,10 +3840,10 @@
       <c r="A105" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3877,10 +3851,10 @@
       <c r="A106" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="32" t="s">
+      <c r="D106" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3888,10 +3862,10 @@
       <c r="A107" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3899,10 +3873,10 @@
       <c r="A108" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3910,10 +3884,10 @@
       <c r="A109" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3921,10 +3895,10 @@
       <c r="A110" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3932,10 +3906,10 @@
       <c r="A111" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3946,7 +3920,7 @@
       <c r="B112" s="1">
         <v>0.625</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E112" t="s">
@@ -3958,7 +3932,7 @@
         <v>31</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3967,7 +3941,7 @@
         <v>31</v>
       </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3976,7 +3950,7 @@
         <v>31</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="32" t="s">
+      <c r="C115" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3985,7 +3959,7 @@
         <v>31</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3994,7 +3968,7 @@
         <v>31</v>
       </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4003,7 +3977,7 @@
         <v>31</v>
       </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4012,7 +3986,7 @@
         <v>31</v>
       </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4021,7 +3995,7 @@
         <v>31</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4054,7 +4028,7 @@
       <c r="B124" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E124" t="s">
@@ -4066,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4075,7 +4049,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4084,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4093,7 +4067,7 @@
         <v>5</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4102,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4111,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4120,7 +4094,7 @@
         <v>5</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4131,10 +4105,10 @@
       <c r="B132" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4142,10 +4116,10 @@
       <c r="A133" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="D133" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4153,10 +4127,10 @@
       <c r="A134" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="31" t="s">
+      <c r="C134" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D134" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4164,10 +4138,10 @@
       <c r="A135" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4175,10 +4149,10 @@
       <c r="A136" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4186,10 +4160,10 @@
       <c r="A137" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4197,10 +4171,10 @@
       <c r="A138" t="s">
         <v>24</v>
       </c>
-      <c r="C138" s="31" t="s">
+      <c r="C138" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4208,10 +4182,10 @@
       <c r="A139" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="C139" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4222,7 +4196,7 @@
       <c r="B140" s="1">
         <v>0.625</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E140" t="s">
@@ -4233,7 +4207,7 @@
       <c r="A141" t="s">
         <v>31</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4241,7 +4215,7 @@
       <c r="A142" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4249,7 +4223,7 @@
       <c r="A143" t="s">
         <v>31</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4257,7 +4231,7 @@
       <c r="A144" t="s">
         <v>31</v>
       </c>
-      <c r="C144" s="25" t="s">
+      <c r="C144" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4265,7 +4239,7 @@
       <c r="A145" t="s">
         <v>31</v>
       </c>
-      <c r="C145" s="25" t="s">
+      <c r="C145" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4273,7 +4247,7 @@
       <c r="A146" t="s">
         <v>31</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4281,12 +4255,22 @@
       <c r="A147" t="s">
         <v>31</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="24" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="K9:T9"/>
@@ -4303,37 +4287,27 @@
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K5:AD7">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"D2-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"D2-A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"D1-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"D1-A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AT7">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"DO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"AMB"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4395,7 +4369,7 @@
       <c r="G1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>311</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -4418,40 +4392,40 @@
       <c r="J2" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="Z2" s="11" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="Z2" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
       <c r="AO2" t="s">
         <v>310</v>
       </c>
@@ -4481,30 +4455,30 @@
       <c r="I3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="32"/>
       <c r="Y3" s="7" t="s">
         <v>309</v>
       </c>
@@ -4523,10 +4497,10 @@
       <c r="AD3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AE3" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AF3" s="20" t="s">
         <v>308</v>
       </c>
       <c r="AG3" s="7" t="s">
@@ -4544,10 +4518,10 @@
       <c r="AK3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AL3" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AM3" s="21" t="s">
+      <c r="AM3" s="20" t="s">
         <v>308</v>
       </c>
       <c r="AO3" s="2" t="s">
@@ -4637,10 +4611,10 @@
       <c r="AD4" t="s">
         <v>295</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AE4" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AF4" s="22" t="s">
+      <c r="AF4" s="21" t="s">
         <v>295</v>
       </c>
       <c r="AG4" t="s">
@@ -4658,10 +4632,10 @@
       <c r="AK4" t="s">
         <v>281</v>
       </c>
-      <c r="AL4" s="22" t="s">
+      <c r="AL4" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AM4" s="22" t="s">
+      <c r="AM4" s="21" t="s">
         <v>281</v>
       </c>
       <c r="AO4">
@@ -4736,10 +4710,10 @@
       <c r="AD5" t="s">
         <v>295</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AE5" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AF5" s="22" t="s">
+      <c r="AF5" s="21" t="s">
         <v>295</v>
       </c>
       <c r="AG5" t="s">
@@ -4757,10 +4731,10 @@
       <c r="AK5" t="s">
         <v>281</v>
       </c>
-      <c r="AL5" s="22" t="s">
+      <c r="AL5" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AM5" s="22" t="s">
+      <c r="AM5" s="21" t="s">
         <v>281</v>
       </c>
       <c r="AO5">
@@ -4850,10 +4824,10 @@
       <c r="AD6" t="s">
         <v>295</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AE6" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AF6" s="22" t="s">
+      <c r="AF6" s="21" t="s">
         <v>295</v>
       </c>
       <c r="AG6" t="s">
@@ -4871,10 +4845,10 @@
       <c r="AK6" t="s">
         <v>281</v>
       </c>
-      <c r="AL6" s="22" t="s">
+      <c r="AL6" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AM6" s="22" t="s">
+      <c r="AM6" s="21" t="s">
         <v>281</v>
       </c>
       <c r="AO6">
@@ -4964,10 +4938,10 @@
       <c r="AD7" t="s">
         <v>281</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AE7" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AF7" s="22" t="s">
+      <c r="AF7" s="21" t="s">
         <v>281</v>
       </c>
       <c r="AG7" t="s">
@@ -4985,10 +4959,10 @@
       <c r="AK7" t="s">
         <v>295</v>
       </c>
-      <c r="AL7" s="22" t="s">
+      <c r="AL7" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AM7" s="22" t="s">
+      <c r="AM7" s="21" t="s">
         <v>295</v>
       </c>
       <c r="AO7">
@@ -5063,10 +5037,10 @@
       <c r="AD8" t="s">
         <v>281</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AF8" s="22" t="s">
+      <c r="AF8" s="21" t="s">
         <v>281</v>
       </c>
       <c r="AG8" t="s">
@@ -5084,10 +5058,10 @@
       <c r="AK8" t="s">
         <v>295</v>
       </c>
-      <c r="AL8" s="22" t="s">
+      <c r="AL8" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AM8" s="22" t="s">
+      <c r="AM8" s="21" t="s">
         <v>295</v>
       </c>
       <c r="AO8">
@@ -5141,10 +5115,10 @@
       <c r="AD9" t="s">
         <v>281</v>
       </c>
-      <c r="AE9" s="22" t="s">
+      <c r="AE9" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AF9" s="22" t="s">
+      <c r="AF9" s="21" t="s">
         <v>281</v>
       </c>
       <c r="AG9" t="s">
@@ -5162,10 +5136,10 @@
       <c r="AK9" t="s">
         <v>295</v>
       </c>
-      <c r="AL9" s="22" t="s">
+      <c r="AL9" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AM9" s="22" t="s">
+      <c r="AM9" s="21" t="s">
         <v>295</v>
       </c>
       <c r="AO9">
@@ -5240,24 +5214,24 @@
       <c r="I12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11" t="s">
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5300,11 +5274,11 @@
         <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
-      <c r="AE13" s="15" t="str">
+      <c r="AE13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
-      <c r="AF13" s="15" t="str">
+      <c r="AF13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
@@ -5328,11 +5302,11 @@
         <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
-      <c r="AL13" s="15" t="str">
+      <c r="AL13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
-      <c r="AM13" s="15" t="str">
+      <c r="AM13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
@@ -5355,62 +5329,62 @@
         <v>122</v>
       </c>
       <c r="Y14" s="2" t="str">
-        <f t="shared" ref="Y14:Y21" si="3">Y4</f>
+        <f t="shared" ref="Y14:Y19" si="3">Y4</f>
         <v>R1-A</v>
       </c>
-      <c r="Z14" s="13" t="b">
+      <c r="Z14" s="12" t="b">
         <f>Z4&lt;&gt;AM4</f>
         <v>1</v>
       </c>
-      <c r="AA14" s="13" t="b">
+      <c r="AA14" s="12" t="b">
         <f>AA4&lt;&gt;Z4</f>
         <v>1</v>
       </c>
-      <c r="AB14" s="13" t="b">
+      <c r="AB14" s="12" t="b">
         <f t="shared" ref="AB14:AM14" si="4">AB4&lt;&gt;AA4</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="13" t="b">
+      <c r="AC14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="13" t="b">
+      <c r="AD14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="13" t="b">
+      <c r="AE14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="13" t="b">
+      <c r="AF14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="13" t="b">
+      <c r="AG14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AH14" s="13" t="b">
+      <c r="AH14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="13" t="b">
+      <c r="AI14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="13" t="b">
+      <c r="AJ14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="13" t="b">
+      <c r="AK14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="13" t="b">
+      <c r="AL14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="13" t="b">
+      <c r="AM14" s="12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5436,59 +5410,59 @@
         <f t="shared" si="3"/>
         <v>R2-A</v>
       </c>
-      <c r="Z15" s="13" t="b">
+      <c r="Z15" s="12" t="b">
         <f t="shared" ref="Z15:Z19" si="5">Z5&lt;&gt;AM5</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="13" t="b">
+      <c r="AA15" s="12" t="b">
         <f t="shared" ref="AA15:AM15" si="6">AA5&lt;&gt;Z5</f>
         <v>1</v>
       </c>
-      <c r="AB15" s="13" t="b">
+      <c r="AB15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="13" t="b">
+      <c r="AC15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="13" t="b">
+      <c r="AD15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="13" t="b">
+      <c r="AE15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="13" t="b">
+      <c r="AF15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="13" t="b">
+      <c r="AG15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="13" t="b">
+      <c r="AH15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AI15" s="13" t="b">
+      <c r="AI15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="13" t="b">
+      <c r="AJ15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="13" t="b">
+      <c r="AK15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="13" t="b">
+      <c r="AL15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="13" t="b">
+      <c r="AM15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5514,59 +5488,59 @@
         <f t="shared" si="3"/>
         <v>R3-A</v>
       </c>
-      <c r="Z16" s="13" t="b">
+      <c r="Z16" s="12" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="13" t="b">
+      <c r="AA16" s="12" t="b">
         <f t="shared" ref="AA16:AM16" si="7">AA6&lt;&gt;Z6</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="13" t="b">
+      <c r="AB16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AC16" s="13" t="b">
+      <c r="AC16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD16" s="13" t="b">
+      <c r="AD16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="13" t="b">
+      <c r="AE16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="13" t="b">
+      <c r="AF16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="13" t="b">
+      <c r="AG16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="13" t="b">
+      <c r="AH16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="13" t="b">
+      <c r="AI16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ16" s="13" t="b">
+      <c r="AJ16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="13" t="b">
+      <c r="AK16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="13" t="b">
+      <c r="AL16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="13" t="b">
+      <c r="AM16" s="12" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5592,59 +5566,59 @@
         <f t="shared" si="3"/>
         <v>R1-B</v>
       </c>
-      <c r="Z17" s="13" t="b">
+      <c r="Z17" s="12" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AA17" s="13" t="b">
+      <c r="AA17" s="12" t="b">
         <f t="shared" ref="AA17:AM17" si="8">AA7&lt;&gt;Z7</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="13" t="b">
+      <c r="AB17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="13" t="b">
+      <c r="AC17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="13" t="b">
+      <c r="AD17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="13" t="b">
+      <c r="AE17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="13" t="b">
+      <c r="AF17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="13" t="b">
+      <c r="AG17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AH17" s="13" t="b">
+      <c r="AH17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AI17" s="13" t="b">
+      <c r="AI17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="13" t="b">
+      <c r="AJ17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="13" t="b">
+      <c r="AK17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="13" t="b">
+      <c r="AL17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="13" t="b">
+      <c r="AM17" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5670,59 +5644,59 @@
         <f t="shared" si="3"/>
         <v>R2-B</v>
       </c>
-      <c r="Z18" s="13" t="b">
+      <c r="Z18" s="12" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="13" t="b">
+      <c r="AA18" s="12" t="b">
         <f t="shared" ref="AA18:AM18" si="9">AA8&lt;&gt;Z8</f>
         <v>1</v>
       </c>
-      <c r="AB18" s="13" t="b">
+      <c r="AB18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="13" t="b">
+      <c r="AC18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="13" t="b">
+      <c r="AD18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="13" t="b">
+      <c r="AE18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="13" t="b">
+      <c r="AF18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="13" t="b">
+      <c r="AG18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="13" t="b">
+      <c r="AH18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI18" s="13" t="b">
+      <c r="AI18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AJ18" s="13" t="b">
+      <c r="AJ18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="13" t="b">
+      <c r="AK18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="13" t="b">
+      <c r="AL18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="13" t="b">
+      <c r="AM18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5748,59 +5722,59 @@
         <f t="shared" si="3"/>
         <v>R3-B</v>
       </c>
-      <c r="Z19" s="13" t="b">
+      <c r="Z19" s="12" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="13" t="b">
+      <c r="AA19" s="12" t="b">
         <f t="shared" ref="AA19:AM19" si="10">AA9&lt;&gt;Z9</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="13" t="b">
+      <c r="AB19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC19" s="13" t="b">
+      <c r="AC19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="13" t="b">
+      <c r="AD19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="13" t="b">
+      <c r="AE19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="13" t="b">
+      <c r="AF19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="13" t="b">
+      <c r="AG19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH19" s="13" t="b">
+      <c r="AH19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="13" t="b">
+      <c r="AI19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AJ19" s="13" t="b">
+      <c r="AJ19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AK19" s="13" t="b">
+      <c r="AK19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="13" t="b">
+      <c r="AL19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="13" t="b">
+      <c r="AM19" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8476,7 +8450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913E148-5610-1142-A9CC-72A3C250F9B6}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8499,10 +8473,10 @@
       <c r="F1" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>350</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -8520,10 +8494,10 @@
       <c r="M1" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8546,10 +8520,10 @@
       <c r="F2" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>295</v>
       </c>
       <c r="I2" t="s">
@@ -8567,10 +8541,10 @@
       <c r="M2" t="s">
         <v>281</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8593,10 +8567,10 @@
       <c r="F3" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>295</v>
       </c>
       <c r="I3" t="s">
@@ -8614,10 +8588,10 @@
       <c r="M3" t="s">
         <v>281</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="21" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8635,16 +8609,16 @@
         <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>295</v>
+        <v>279</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="I4" t="s">
         <v>295</v>
@@ -8661,10 +8635,10 @@
       <c r="M4" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8687,10 +8661,10 @@
       <c r="F5" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>281</v>
       </c>
       <c r="I5" t="s">
@@ -8708,10 +8682,10 @@
       <c r="M5" t="s">
         <v>295</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8734,10 +8708,10 @@
       <c r="F6" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>281</v>
       </c>
       <c r="I6" t="s">
@@ -8755,10 +8729,10 @@
       <c r="M6" t="s">
         <v>295</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8781,10 +8755,10 @@
       <c r="F7" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>281</v>
       </c>
       <c r="I7" t="s">
@@ -8797,20 +8771,20 @@
         <v>279</v>
       </c>
       <c r="L7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>295</v>
+        <v>279</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>330</v>
       </c>
       <c r="B8" t="s">
@@ -8828,10 +8802,10 @@
       <c r="F8" t="s">
         <v>279</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>279</v>
       </c>
       <c r="I8" t="s">
@@ -8849,15 +8823,15 @@
       <c r="M8" t="s">
         <v>318</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="21" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>331</v>
       </c>
       <c r="B9" t="s">
@@ -8875,10 +8849,10 @@
       <c r="F9" t="s">
         <v>318</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>318</v>
       </c>
       <c r="I9" t="s">
@@ -8896,15 +8870,15 @@
       <c r="M9" t="s">
         <v>279</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="21" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>332</v>
       </c>
       <c r="B10" t="s">
@@ -8922,10 +8896,10 @@
       <c r="F10" t="s">
         <v>318</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>318</v>
       </c>
       <c r="I10" t="s">
@@ -8943,15 +8917,15 @@
       <c r="M10" t="s">
         <v>318</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="21" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>333</v>
       </c>
       <c r="B11" t="s">
@@ -8969,10 +8943,10 @@
       <c r="F11" t="s">
         <v>279</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>279</v>
       </c>
       <c r="I11" t="s">
@@ -8990,10 +8964,10 @@
       <c r="M11" t="s">
         <v>279</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="21" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9050,7 +9024,7 @@
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9061,7 +9035,7 @@
       <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9072,7 +9046,7 @@
       <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9083,7 +9057,7 @@
       <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9094,7 +9068,7 @@
       <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9105,7 +9079,7 @@
       <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9116,7 +9090,7 @@
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9127,7 +9101,7 @@
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9138,7 +9112,7 @@
       <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9149,7 +9123,7 @@
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9160,7 +9134,7 @@
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9171,7 +9145,7 @@
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9182,7 +9156,7 @@
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9193,7 +9167,7 @@
       <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9204,7 +9178,7 @@
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9215,7 +9189,7 @@
       <c r="B17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9226,7 +9200,7 @@
       <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9237,7 +9211,7 @@
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9248,7 +9222,7 @@
       <c r="B20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9259,7 +9233,7 @@
       <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9270,7 +9244,7 @@
       <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9281,7 +9255,7 @@
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9292,7 +9266,7 @@
       <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9303,7 +9277,7 @@
       <c r="B25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9314,7 +9288,7 @@
       <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9325,7 +9299,7 @@
       <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9336,7 +9310,7 @@
       <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9347,7 +9321,7 @@
       <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9358,7 +9332,7 @@
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9369,7 +9343,7 @@
       <c r="B31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9380,7 +9354,7 @@
       <c r="B32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9391,7 +9365,7 @@
       <c r="B33" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9402,7 +9376,7 @@
       <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9413,7 +9387,7 @@
       <c r="B35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9424,7 +9398,7 @@
       <c r="B36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9435,7 +9409,7 @@
       <c r="B37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9446,7 +9420,7 @@
       <c r="B38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9457,7 +9431,7 @@
       <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9468,7 +9442,7 @@
       <c r="B40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9479,7 +9453,7 @@
       <c r="B41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9490,7 +9464,7 @@
       <c r="B42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9501,7 +9475,7 @@
       <c r="B43" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9512,7 +9486,7 @@
       <c r="B44" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9523,7 +9497,7 @@
       <c r="B45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9534,7 +9508,7 @@
       <c r="B46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9545,7 +9519,7 @@
       <c r="B47" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9556,7 +9530,7 @@
       <c r="B48" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9567,7 +9541,7 @@
       <c r="B49" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9578,7 +9552,7 @@
       <c r="B50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9589,7 +9563,7 @@
       <c r="B51" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9600,7 +9574,7 @@
       <c r="B52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9611,7 +9585,7 @@
       <c r="B53" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9622,7 +9596,7 @@
       <c r="B54" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9633,7 +9607,7 @@
       <c r="B55" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9644,7 +9618,7 @@
       <c r="B56" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9655,7 +9629,7 @@
       <c r="B57" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9666,7 +9640,7 @@
       <c r="B58" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9677,7 +9651,7 @@
       <c r="B59" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9688,7 +9662,7 @@
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9699,7 +9673,7 @@
       <c r="B61" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9710,7 +9684,7 @@
       <c r="B62" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9721,7 +9695,7 @@
       <c r="B63" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9732,7 +9706,7 @@
       <c r="B64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9743,7 +9717,7 @@
       <c r="B65" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9751,10 +9725,10 @@
       <c r="A66" t="s">
         <v>336</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9762,10 +9736,10 @@
       <c r="A67" t="s">
         <v>336</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9773,10 +9747,10 @@
       <c r="A68" t="s">
         <v>336</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9784,10 +9758,10 @@
       <c r="A69" t="s">
         <v>336</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9795,10 +9769,10 @@
       <c r="A70" t="s">
         <v>336</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9806,10 +9780,10 @@
       <c r="A71" t="s">
         <v>336</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9817,10 +9791,10 @@
       <c r="A72" t="s">
         <v>336</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9828,10 +9802,10 @@
       <c r="A73" t="s">
         <v>336</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9839,10 +9813,10 @@
       <c r="A74" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="13" t="s">
         <v>343</v>
       </c>
     </row>

--- a/UMS_Courier_Schedules.xlsx
+++ b/UMS_Courier_Schedules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlambson/GitHub/Cambridge_Covid/Location_Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AC53B-1582-3E44-920A-5F8D2E32A56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEF714-192D-A44A-97ED-4948DCE312D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{2C2620DC-D6D8-BD44-B43F-777623BFE0B1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="359">
   <si>
     <t xml:space="preserve">Location </t>
   </si>
@@ -1111,6 +1111,9 @@
   </si>
   <si>
     <t>Sunday-B</t>
+  </si>
+  <si>
+    <t>EXC</t>
   </si>
 </sst>
 </file>
@@ -1318,17 +1321,17 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1347,6 +1350,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB8CBE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1892,48 +1930,48 @@
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AG2" s="32" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AG2" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32" t="s">
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
       <c r="AV2" t="s">
         <v>310</v>
       </c>
@@ -1962,46 +2000,46 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33" t="s">
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33" t="s">
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="33"/>
+      <c r="AD3" s="32"/>
       <c r="AF3" s="7" t="s">
         <v>309</v>
       </c>
@@ -2598,30 +2636,30 @@
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33" t="s">
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2639,46 +2677,46 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33" t="s">
+      <c r="L10" s="32"/>
+      <c r="M10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33" t="s">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33" t="s">
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33" t="s">
+      <c r="R10" s="32"/>
+      <c r="S10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33" t="s">
+      <c r="T10" s="32"/>
+      <c r="U10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33" t="s">
+      <c r="V10" s="32"/>
+      <c r="W10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33" t="s">
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33" t="s">
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33" t="s">
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="33"/>
+      <c r="AD10" s="32"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4261,16 +4299,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="K9:T9"/>
@@ -4287,41 +4315,51 @@
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K5:AD7">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"D2-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"D2-A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"D1-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"D1-A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AT7">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"DO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"AMB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:AD14">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"D2-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"D2-A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"D1-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"D1-A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4392,40 +4430,40 @@
       <c r="J2" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="Z2" s="32" t="s">
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32" t="s">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
       <c r="AO2" t="s">
         <v>310</v>
       </c>
@@ -4455,30 +4493,30 @@
       <c r="I3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32" t="s">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32" t="s">
+      <c r="S3" s="33"/>
+      <c r="T3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32" t="s">
+      <c r="U3" s="33"/>
+      <c r="V3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="32"/>
+      <c r="W3" s="33"/>
       <c r="Y3" s="7" t="s">
         <v>309</v>
       </c>
@@ -5214,24 +5252,24 @@
       <c r="I12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32" t="s">
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8407,38 +8445,38 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L5:W8">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"I-A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"I-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"II-A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"II-B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"III-A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"III-B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AM9">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Colleges"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"WFB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"AMB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:AM19">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8506,7 +8544,7 @@
         <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
         <v>295</v>
@@ -8556,7 +8594,7 @@
         <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
         <v>295</v>
@@ -8606,19 +8644,19 @@
         <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="I4" t="s">
         <v>295</v>
@@ -8668,7 +8706,7 @@
         <v>281</v>
       </c>
       <c r="I5" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="J5" t="s">
         <v>295</v>
@@ -8718,7 +8756,7 @@
         <v>281</v>
       </c>
       <c r="J6" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="K6" t="s">
         <v>295</v>
@@ -8768,19 +8806,19 @@
         <v>281</v>
       </c>
       <c r="K7" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="L7" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="M7" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -8788,37 +8826,37 @@
         <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="C8" t="s">
         <v>318</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="E8" t="s">
         <v>318</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="I8" t="s">
         <v>318</v>
       </c>
       <c r="J8" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="K8" t="s">
         <v>318</v>
       </c>
       <c r="L8" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="M8" t="s">
         <v>318</v>
@@ -8838,13 +8876,13 @@
         <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
         <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="F9" t="s">
         <v>318</v>
@@ -8856,25 +8894,25 @@
         <v>318</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="J9" t="s">
         <v>318</v>
       </c>
       <c r="K9" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="L9" t="s">
         <v>318</v>
       </c>
       <c r="M9" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -8882,13 +8920,13 @@
         <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
         <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="E10" t="s">
         <v>318</v>
@@ -8903,13 +8941,13 @@
         <v>318</v>
       </c>
       <c r="I10" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="J10" t="s">
         <v>318</v>
       </c>
       <c r="K10" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="L10" t="s">
         <v>318</v>
@@ -8932,63 +8970,63 @@
         <v>318</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="D11" t="s">
         <v>318</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="I11" t="s">
         <v>318</v>
       </c>
       <c r="J11" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="K11" t="s">
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="M11" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:O7">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Colleges"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"WFB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"AMB"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"EXC"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:O11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"DO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"AMB"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"EXC"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
